--- a/data/CS3/Market Data/CS3_market_data_2040.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2040.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226EC553-075B-48E2-BF02-E4D5D037D651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA27B80B-F258-4F07-B2E1-EA8368964A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43500" yWindow="-6720" windowWidth="13830" windowHeight="8550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2964" yWindow="2964" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2040.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA27B80B-F258-4F07-B2E1-EA8368964A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9924A622-5EB9-4678-9FE6-2D34BA8E89FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2964" yWindow="2964" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2040.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9924A622-5EB9-4678-9FE6-2D34BA8E89FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B11AE9-6061-47F5-8C25-4D959A3D4CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2040.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B11AE9-6061-47F5-8C25-4D959A3D4CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84068FC-C87A-474B-9F4A-225EE417E499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2040.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2040.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84068FC-C87A-474B-9F4A-225EE417E499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD27EAE-146E-462A-9FAA-D70010B2FB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/CS3/Market Data/CS3_market_data_2040.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2040.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD27EAE-146E-462A-9FAA-D70010B2FB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422922DE-28F3-4F2B-BC5A-548539D9CABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2040.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422922DE-28F3-4F2B-BC5A-548539D9CABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFFB4E0-6D87-4231-8FB2-D2610ADDB4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-12390" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2040.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFFB4E0-6D87-4231-8FB2-D2610ADDB4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6822CE4C-B48D-46C2-81F8-15AFBCBE6C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31500" yWindow="-9570" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2040.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2040.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6822CE4C-B48D-46C2-81F8-15AFBCBE6C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CA72FB-FF09-4C00-BF1C-27AEC2028370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31500" yWindow="-9570" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2040.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CA72FB-FF09-4C00-BF1C-27AEC2028370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30305C4C-A1E2-40DA-904C-75CAF27206E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31500" yWindow="-9570" windowWidth="28800" windowHeight="15375" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/CS3/Market Data/CS3_market_data_2040.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30305C4C-A1E2-40DA-904C-75CAF27206E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1D963B-08A4-43C8-9DA8-88474BEF886F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/CS3/Market Data/CS3_market_data_2040.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1D963B-08A4-43C8-9DA8-88474BEF886F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197A008C-477D-4BA5-ACEF-7F44F7BBD5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2040.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2040.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197A008C-477D-4BA5-ACEF-7F44F7BBD5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320C99CC-77F0-4047-AEF4-2FA2CC73B631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2040.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2040.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320C99CC-77F0-4047-AEF4-2FA2CC73B631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349748DB-0CBA-411D-969F-8423FA617E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/CS3/Market Data/CS3_market_data_2040.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2040.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349748DB-0CBA-411D-969F-8423FA617E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F322F82-ACB1-417E-951A-C653013111DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2040.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F322F82-ACB1-417E-951A-C653013111DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032310CD-D72B-46C9-A151-16D4F7443D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="13320" windowHeight="7704" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2040.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032310CD-D72B-46C9-A151-16D4F7443D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9DD95B-1C90-44CB-8A2B-BEB21E9E57B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="13320" windowHeight="7704" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30720" yWindow="-10350" windowWidth="16650" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2040.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9DD95B-1C90-44CB-8A2B-BEB21E9E57B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE14FE81-5B63-44A6-9258-3EE90BE87231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30720" yWindow="-10350" windowWidth="16650" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29760" yWindow="-11310" windowWidth="16650" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,11 +1338,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2040.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE14FE81-5B63-44A6-9258-3EE90BE87231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EA37A7-A4C7-489B-A15B-888FFC1F36BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="-11310" windowWidth="16650" windowHeight="9630" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,10 +1338,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS3/Market Data/CS3_market_data_2040.xlsx
+++ b/data/CS3/Market Data/CS3_market_data_2040.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS3\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EA37A7-A4C7-489B-A15B-888FFC1F36BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D8C038-B5C4-4007-8207-071548EC57DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="49020" yWindow="-6075" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1325,7 +1325,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,19 +1338,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f>1/$B$1</f>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f>1/$B$1</f>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <f>1/$B$1</f>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
